--- a/calibration/adc/example_LTC2512-24_antialiasing_filter_180kHz_df4.xlsx
+++ b/calibration/adc/example_LTC2512-24_antialiasing_filter_180kHz_df4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selene.fregosi\Documents\GitHub\glider-CalCurCEAS\noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selene.fregosi\Documents\GitHub\glider-lab\calibration\adc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA7CAF-49E6-46DE-B9AA-F65CFBECF7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4206979-B778-4238-83F7-6CE59B03565B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="1740" windowWidth="12915" windowHeight="12435" xr2:uid="{EB5A5953-DB80-49E2-8285-6CE88E2435F2}"/>
+    <workbookView xWindow="885" yWindow="1260" windowWidth="25875" windowHeight="13215" xr2:uid="{EB5A5953-DB80-49E2-8285-6CE88E2435F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
